--- a/阶段提交/5.测试阶段/测试用例 V1.0.xlsx
+++ b/阶段提交/5.测试阶段/测试用例 V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -576,23 +576,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -897,21 +897,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" customWidth="1"/>
-    <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,16 +944,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -965,16 +965,16 @@
       <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
@@ -984,14 +984,14 @@
       <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1001,18 +1001,18 @@
       <c r="G4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1021,46 +1021,46 @@
       <c r="F5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="21" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4">
         <v>3</v>
       </c>
@@ -1084,16 +1084,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1110,10 +1110,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1128,141 +1128,141 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="23"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20">
         <v>6</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20">
         <v>7</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="4">
@@ -1288,7 +1288,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4">
         <v>9</v>
       </c>
@@ -1312,16 +1312,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="20">
         <v>10</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1338,49 +1338,49 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="23"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B26" s="4">
@@ -1441,7 +1441,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4">
         <v>13</v>
       </c>
@@ -1565,18 +1565,27 @@
     <row r="93" ht="39" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="G11:G13"/>
@@ -1593,27 +1602,18 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I17:I18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
